--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-546252.1124334873</v>
+        <v>-546964.7169075287</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058539</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.1950537865829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>20.40037881520172</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.66716559384189</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.17968824550859</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13476116065494</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>71.82086528673091</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.5501342845967</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X11" t="n">
-        <v>181.4530649701509</v>
+        <v>181.4530649701508</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>9.188502199810586</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705464</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>13.25780256851665</v>
+        <v>13.25780256851657</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134804</v>
+        <v>36.64054962134796</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437492</v>
+        <v>58.89840834437484</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084699</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W12" t="n">
-        <v>88.37493425245634</v>
+        <v>88.37493425245626</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491535</v>
+        <v>38.98326511491527</v>
       </c>
       <c r="Y12" t="n">
-        <v>186.4757987133496</v>
+        <v>163.1583953554598</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.0935346565016</v>
+        <v>25.09353465650152</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412742</v>
+        <v>57.10576830412733</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605257</v>
+        <v>45.43126511605249</v>
       </c>
       <c r="U13" t="n">
         <v>110.3268994226097</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989465</v>
+        <v>66.77936585989457</v>
       </c>
       <c r="W13" t="n">
-        <v>111.9810577647801</v>
+        <v>111.98105776478</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368728</v>
+        <v>43.58980608368719</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961317</v>
+        <v>38.81162348961308</v>
       </c>
     </row>
     <row r="14">
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.442510317672</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>156.6642650593954</v>
       </c>
       <c r="G14" t="n">
         <v>188.5623770505816</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384196</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.5307887271876</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>18.98387110999286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.5501342845968</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.5668145012116</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.4530649701508</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810671</v>
+        <v>9.188502199810586</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668491</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851665</v>
+        <v>13.25780256851657</v>
       </c>
       <c r="T15" t="n">
-        <v>36.64054962134804</v>
+        <v>36.64054962134796</v>
       </c>
       <c r="U15" t="n">
-        <v>58.89840834437492</v>
+        <v>136.5833608433046</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084699</v>
+        <v>62.31927159084691</v>
       </c>
       <c r="W15" t="n">
-        <v>157.2607848607083</v>
+        <v>88.37493425245626</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491535</v>
+        <v>38.98326511491527</v>
       </c>
       <c r="Y15" t="n">
-        <v>188.5623770505816</v>
+        <v>45.05463680947028</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.0935346565016</v>
+        <v>25.09353465650152</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412742</v>
+        <v>57.10576830412733</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605257</v>
+        <v>45.43126511605249</v>
       </c>
       <c r="U16" t="n">
         <v>110.3268994226097</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989465</v>
+        <v>66.77936585989457</v>
       </c>
       <c r="W16" t="n">
-        <v>111.9810577647801</v>
+        <v>111.98105776478</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368728</v>
+        <v>43.58980608368719</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961317</v>
+        <v>38.81162348961308</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C17" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D17" t="n">
-        <v>40.34756785016631</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E17" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F17" t="n">
         <v>105.7746578479523</v>
@@ -1859,7 +1859,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H17" t="n">
-        <v>49.59336558194014</v>
+        <v>49.5933655819402</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W17" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X17" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1977,16 +1977,16 @@
         <v>188.5623770505816</v>
       </c>
       <c r="U18" t="n">
-        <v>166.0857417061523</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>17.34131701649373</v>
       </c>
       <c r="X18" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C20" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D20" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E20" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7746578479523</v>
+        <v>105.7746578479517</v>
       </c>
       <c r="G20" t="n">
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194013</v>
+        <v>49.59336558194019</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W20" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X20" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="21">
@@ -2163,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2202,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T21" t="n">
-        <v>63.46618420127854</v>
+        <v>33.50544698400833</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.6626485857721</v>
+        <v>76.66264858577216</v>
       </c>
       <c r="C23" t="n">
-        <v>52.78090558911759</v>
+        <v>52.78090558911765</v>
       </c>
       <c r="D23" t="n">
-        <v>40.34756785016606</v>
+        <v>40.34756785016612</v>
       </c>
       <c r="E23" t="n">
-        <v>74.05432026957493</v>
+        <v>74.05432026957499</v>
       </c>
       <c r="F23" t="n">
         <v>105.7746578479523</v>
@@ -2333,7 +2333,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H23" t="n">
-        <v>49.59336558194013</v>
+        <v>49.5933655819402</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.45519181709079</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W23" t="n">
-        <v>40.47187203370567</v>
+        <v>40.47187203370572</v>
       </c>
       <c r="X23" t="n">
-        <v>62.3581225026449</v>
+        <v>62.35812250264496</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.86097562638867</v>
+        <v>84.86097562638872</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>54.43139529722436</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>77.85084649715317</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.5623770505814</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1300731737075</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
         <v>1.50322227787052</v>
@@ -2694,13 +2694,13 @@
         <v>27.18194424736947</v>
       </c>
       <c r="W27" t="n">
-        <v>53.23760690897882</v>
+        <v>152.866930759385</v>
       </c>
       <c r="X27" t="n">
         <v>3.845937771437832</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.917309465992844</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2810,7 +2810,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036444</v>
+        <v>27.52983825036443</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203115</v>
+        <v>14.04236090203116</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177503</v>
+        <v>8.997433817177495</v>
       </c>
       <c r="U29" t="n">
         <v>36.68353794325347</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
         <v>52.45818464705464</v>
@@ -2913,28 +2913,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>1.50322227787052</v>
       </c>
       <c r="U30" t="n">
-        <v>23.7610810008974</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V30" t="n">
-        <v>27.18194424736947</v>
+        <v>135.5726785165384</v>
       </c>
       <c r="W30" t="n">
         <v>53.23760690897882</v>
       </c>
       <c r="X30" t="n">
-        <v>89.83925793326665</v>
+        <v>3.845937771437832</v>
       </c>
       <c r="Y30" t="n">
         <v>9.917309465992844</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.503222277870605</v>
+        <v>1.503222277870606</v>
       </c>
       <c r="U33" t="n">
         <v>23.76108100089748</v>
@@ -3168,10 +3168,10 @@
         <v>230.6655315642899</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.2376069089789</v>
       </c>
       <c r="X33" t="n">
-        <v>3.845937771437917</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.96844096064997</v>
+        <v>21.96844096064998</v>
       </c>
       <c r="T34" t="n">
         <v>10.29393777257514</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>48.70904727740805</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>31.44441249603126</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>260.458394474629</v>
@@ -3411,7 +3411,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>31.44441249603126</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>48.70904727740807</v>
       </c>
       <c r="W39" t="n">
         <v>260.458394474629</v>
@@ -3648,7 +3648,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3828,16 +3828,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9701989459033</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>5.777957553085632</v>
+        <v>157.7258848519472</v>
       </c>
       <c r="W42" t="n">
         <v>25.70776865861438</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.153699692889042</v>
+        <v>9.153699692889035</v>
       </c>
       <c r="V44" t="n">
         <v>79.88296869075481</v>
@@ -4059,16 +4059,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>71.93938408310676</v>
+        <v>59.74017730534216</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5520376898865</v>
+        <v>98.99160067823192</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5520376898865</v>
+        <v>98.99160067823192</v>
       </c>
       <c r="D11" t="n">
-        <v>205.5520376898865</v>
+        <v>98.99160067823192</v>
       </c>
       <c r="E11" t="n">
-        <v>15.08499016404653</v>
+        <v>98.99160067823192</v>
       </c>
       <c r="F11" t="n">
-        <v>15.08499016404653</v>
+        <v>98.99160067823192</v>
       </c>
       <c r="G11" t="n">
-        <v>15.08499016404653</v>
+        <v>98.99160067823192</v>
       </c>
       <c r="H11" t="n">
-        <v>15.08499016404653</v>
+        <v>78.38515743055349</v>
       </c>
       <c r="I11" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>115.6457740567087</v>
+        <v>115.6457740567088</v>
       </c>
       <c r="K11" t="n">
-        <v>156.1816292932522</v>
+        <v>267.4711326400898</v>
       </c>
       <c r="L11" t="n">
-        <v>202.9549675235463</v>
+        <v>314.2444708703838</v>
       </c>
       <c r="M11" t="n">
-        <v>283.875278246698</v>
+        <v>395.1647815935356</v>
       </c>
       <c r="N11" t="n">
-        <v>470.5520315267738</v>
+        <v>470.5520315267737</v>
       </c>
       <c r="O11" t="n">
-        <v>504.8287151602034</v>
+        <v>504.8287151602033</v>
       </c>
       <c r="P11" t="n">
         <v>666.4818518381373</v>
@@ -5066,25 +5066,25 @@
         <v>754.2495082023263</v>
       </c>
       <c r="S11" t="n">
-        <v>754.2495082023263</v>
+        <v>704.5730554290853</v>
       </c>
       <c r="T11" t="n">
-        <v>754.2495082023263</v>
+        <v>659.992488600141</v>
       </c>
       <c r="U11" t="n">
-        <v>754.2495082023263</v>
+        <v>587.4461600276856</v>
       </c>
       <c r="V11" t="n">
-        <v>754.2495082023263</v>
+        <v>443.4561253967797</v>
       </c>
       <c r="W11" t="n">
-        <v>754.2495082023263</v>
+        <v>282.2775248905054</v>
       </c>
       <c r="X11" t="n">
-        <v>570.9635839900527</v>
+        <v>98.99160067823192</v>
       </c>
       <c r="Y11" t="n">
-        <v>380.4965364642127</v>
+        <v>98.99160067823192</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>257.485329731138</v>
+        <v>24.36630551739055</v>
       </c>
       <c r="C12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I12" t="n">
-        <v>68.07305546410171</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J12" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681695</v>
@@ -5139,31 +5139,31 @@
         <v>754.2495082023263</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.33384509054</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R12" t="n">
-        <v>747.33384509054</v>
+        <v>618.1801765352211</v>
       </c>
       <c r="S12" t="n">
-        <v>733.9421253243615</v>
+        <v>604.7884567690428</v>
       </c>
       <c r="T12" t="n">
-        <v>696.9314691411817</v>
+        <v>567.777800585863</v>
       </c>
       <c r="U12" t="n">
-        <v>637.4381273791868</v>
+        <v>508.2844588238682</v>
       </c>
       <c r="V12" t="n">
-        <v>574.4893681965131</v>
+        <v>317.8174112980283</v>
       </c>
       <c r="W12" t="n">
-        <v>485.2217578404965</v>
+        <v>228.5498009420119</v>
       </c>
       <c r="X12" t="n">
-        <v>445.8447223708851</v>
+        <v>189.1727654724005</v>
       </c>
       <c r="Y12" t="n">
-        <v>257.485329731138</v>
+        <v>24.36630551739055</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.79059153703781</v>
+        <v>15.7905915370379</v>
       </c>
       <c r="C13" t="n">
-        <v>15.79059153703781</v>
+        <v>27.54433520609505</v>
       </c>
       <c r="D13" t="n">
-        <v>48.6061206201439</v>
+        <v>60.35986428920123</v>
       </c>
       <c r="E13" t="n">
-        <v>84.89309365135085</v>
+        <v>96.64683732040827</v>
       </c>
       <c r="F13" t="n">
-        <v>123.9018330863984</v>
+        <v>135.6555767554559</v>
       </c>
       <c r="G13" t="n">
-        <v>133.4345679582484</v>
+        <v>145.1883116273059</v>
       </c>
       <c r="H13" t="n">
-        <v>133.4345679582484</v>
+        <v>157.5698374679137</v>
       </c>
       <c r="I13" t="n">
-        <v>146.7809698071587</v>
+        <v>157.5698374679137</v>
       </c>
       <c r="J13" t="n">
-        <v>146.7809698071587</v>
+        <v>215.0895285345255</v>
       </c>
       <c r="K13" t="n">
-        <v>256.9849787681565</v>
+        <v>215.0895285345255</v>
       </c>
       <c r="L13" t="n">
-        <v>256.9849787681565</v>
+        <v>329.1685394069571</v>
       </c>
       <c r="M13" t="n">
-        <v>256.9849787681565</v>
+        <v>329.1685394069571</v>
       </c>
       <c r="N13" t="n">
-        <v>256.9849787681565</v>
+        <v>329.1685394069571</v>
       </c>
       <c r="O13" t="n">
-        <v>349.9613012161986</v>
+        <v>468.6318884260449</v>
       </c>
       <c r="P13" t="n">
-        <v>468.6318884260457</v>
+        <v>468.6318884260449</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612854</v>
+        <v>519.2459201612847</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577484</v>
+        <v>493.8989154577479</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111551</v>
+        <v>436.2163212111546</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272636</v>
+        <v>390.3261544272632</v>
       </c>
       <c r="U13" t="n">
-        <v>278.884841879173</v>
+        <v>278.8848418791727</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701885</v>
+        <v>211.4309369701882</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980456</v>
+        <v>98.31875740980439</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456489</v>
+        <v>54.2886502545648</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404653</v>
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>429.9052456813149</v>
+        <v>554.2658175989541</v>
       </c>
       <c r="C14" t="n">
-        <v>429.9052456813149</v>
+        <v>554.2658175989541</v>
       </c>
       <c r="D14" t="n">
-        <v>268.8522049563936</v>
+        <v>554.2658175989541</v>
       </c>
       <c r="E14" t="n">
-        <v>268.8522049563936</v>
+        <v>363.7987700731142</v>
       </c>
       <c r="F14" t="n">
-        <v>268.8522049563936</v>
+        <v>205.5520376898865</v>
       </c>
       <c r="G14" t="n">
-        <v>78.38515743055358</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055358</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567087</v>
+        <v>97.54238483187049</v>
       </c>
       <c r="K14" t="n">
-        <v>285.574521864928</v>
+        <v>267.4711326400898</v>
       </c>
       <c r="L14" t="n">
-        <v>332.347860095222</v>
+        <v>314.2444708703838</v>
       </c>
       <c r="M14" t="n">
-        <v>413.2681708183738</v>
+        <v>395.1647815935356</v>
       </c>
       <c r="N14" t="n">
-        <v>488.6554207516119</v>
+        <v>470.5520315267737</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4818518381373</v>
+        <v>504.8287151602033</v>
       </c>
       <c r="P14" t="n">
         <v>666.4818518381373</v>
@@ -5300,28 +5300,28 @@
         <v>754.2495082023263</v>
       </c>
       <c r="R14" t="n">
-        <v>754.2495082023263</v>
+        <v>737.5517418112277</v>
       </c>
       <c r="S14" t="n">
-        <v>754.2495082023263</v>
+        <v>737.5517418112277</v>
       </c>
       <c r="T14" t="n">
-        <v>754.2495082023263</v>
+        <v>737.5517418112277</v>
       </c>
       <c r="U14" t="n">
-        <v>735.0738808184951</v>
+        <v>737.5517418112277</v>
       </c>
       <c r="V14" t="n">
-        <v>591.0838461875892</v>
+        <v>737.5517418112277</v>
       </c>
       <c r="W14" t="n">
-        <v>429.9052456813149</v>
+        <v>737.5517418112277</v>
       </c>
       <c r="X14" t="n">
-        <v>429.9052456813149</v>
+        <v>554.2658175989541</v>
       </c>
       <c r="Y14" t="n">
-        <v>429.9052456813149</v>
+        <v>554.2658175989541</v>
       </c>
     </row>
     <row r="15">
@@ -5352,13 +5352,13 @@
         <v>176.5146922106384</v>
       </c>
       <c r="I15" t="n">
-        <v>68.07305546410171</v>
+        <v>68.07305546410173</v>
       </c>
       <c r="J15" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="K15" t="n">
-        <v>53.07705719635115</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L15" t="n">
         <v>170.4486221681695</v>
@@ -5379,25 +5379,25 @@
         <v>747.33384509054</v>
       </c>
       <c r="R15" t="n">
-        <v>747.33384509054</v>
+        <v>611.2645134234348</v>
       </c>
       <c r="S15" t="n">
-        <v>733.9421253243615</v>
+        <v>597.8727936572565</v>
       </c>
       <c r="T15" t="n">
-        <v>696.9314691411817</v>
+        <v>560.8621374740767</v>
       </c>
       <c r="U15" t="n">
-        <v>637.4381273791868</v>
+        <v>422.899146723264</v>
       </c>
       <c r="V15" t="n">
-        <v>574.4893681965131</v>
+        <v>359.9503875405903</v>
       </c>
       <c r="W15" t="n">
-        <v>415.640090559434</v>
+        <v>270.6827771845739</v>
       </c>
       <c r="X15" t="n">
-        <v>376.2630550898225</v>
+        <v>231.3057417149626</v>
       </c>
       <c r="Y15" t="n">
         <v>185.7960075639825</v>
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.08499016404653</v>
+        <v>15.7905915370379</v>
       </c>
       <c r="C16" t="n">
-        <v>15.08499016404653</v>
+        <v>15.7905915370379</v>
       </c>
       <c r="D16" t="n">
-        <v>15.08499016404653</v>
+        <v>15.7905915370379</v>
       </c>
       <c r="E16" t="n">
-        <v>51.37196319525349</v>
+        <v>15.7905915370379</v>
       </c>
       <c r="F16" t="n">
-        <v>90.38070263030099</v>
+        <v>54.79933097208549</v>
       </c>
       <c r="G16" t="n">
-        <v>99.91343750215098</v>
+        <v>54.79933097208549</v>
       </c>
       <c r="H16" t="n">
-        <v>99.91343750215098</v>
+        <v>54.79933097208549</v>
       </c>
       <c r="I16" t="n">
-        <v>99.91343750215098</v>
+        <v>68.14573282099596</v>
       </c>
       <c r="J16" t="n">
-        <v>157.4331285687626</v>
+        <v>68.14573282099596</v>
       </c>
       <c r="K16" t="n">
-        <v>267.6371375297604</v>
+        <v>178.3497417819938</v>
       </c>
       <c r="L16" t="n">
-        <v>412.3753769850184</v>
+        <v>323.0879812372519</v>
       </c>
       <c r="M16" t="n">
-        <v>519.2459201612854</v>
+        <v>468.6318884260449</v>
       </c>
       <c r="N16" t="n">
-        <v>519.2459201612854</v>
+        <v>468.6318884260449</v>
       </c>
       <c r="O16" t="n">
-        <v>519.2459201612854</v>
+        <v>468.6318884260449</v>
       </c>
       <c r="P16" t="n">
-        <v>519.2459201612854</v>
+        <v>468.6318884260449</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612854</v>
+        <v>519.2459201612847</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577484</v>
+        <v>493.8989154577479</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111551</v>
+        <v>436.2163212111546</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272636</v>
+        <v>390.3261544272632</v>
       </c>
       <c r="U16" t="n">
-        <v>278.884841879173</v>
+        <v>278.8848418791727</v>
       </c>
       <c r="V16" t="n">
-        <v>211.4309369701885</v>
+        <v>211.4309369701882</v>
       </c>
       <c r="W16" t="n">
-        <v>98.31875740980456</v>
+        <v>98.31875740980439</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456489</v>
+        <v>54.2886502545648</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340412</v>
+        <v>463.5335379340411</v>
       </c>
       <c r="C17" t="n">
         <v>410.2194918844275</v>
       </c>
       <c r="D17" t="n">
-        <v>369.4643728438555</v>
+        <v>369.4643728438557</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372141</v>
+        <v>294.6620291372143</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019089</v>
       </c>
       <c r="G17" t="n">
-        <v>65.17929883267294</v>
+        <v>65.179298832673</v>
       </c>
       <c r="H17" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>70.9484892689739</v>
+        <v>70.94848926897383</v>
       </c>
       <c r="J17" t="n">
-        <v>70.9484892689739</v>
+        <v>257.6252425490496</v>
       </c>
       <c r="K17" t="n">
-        <v>70.9484892689739</v>
+        <v>368.5520770703307</v>
       </c>
       <c r="L17" t="n">
-        <v>117.7218274992679</v>
+        <v>415.3254153006246</v>
       </c>
       <c r="M17" t="n">
-        <v>198.6421382224197</v>
+        <v>496.2457260237764</v>
       </c>
       <c r="N17" t="n">
-        <v>274.0293881556578</v>
+        <v>571.6329759570145</v>
       </c>
       <c r="O17" t="n">
-        <v>308.3060717890875</v>
+        <v>605.9096595904441</v>
       </c>
       <c r="P17" t="n">
-        <v>308.3060717890875</v>
+        <v>605.9096595904441</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4829784168841</v>
+        <v>605.9096595904441</v>
       </c>
       <c r="R17" t="n">
-        <v>564.0214906197992</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="S17" t="n">
-        <v>633.2375922995766</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="T17" t="n">
-        <v>707.4481717933591</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="U17" t="n">
         <v>754.2495082023263</v>
       </c>
       <c r="V17" t="n">
-        <v>730.55739525577</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338451</v>
+        <v>689.6767164338448</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059208</v>
+        <v>626.6887139059206</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.9705567075484</v>
+        <v>540.9705567075482</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.08499016404653</v>
+        <v>165.3318837899643</v>
       </c>
       <c r="C18" t="n">
-        <v>15.08499016404653</v>
+        <v>165.3318837899643</v>
       </c>
       <c r="D18" t="n">
-        <v>15.08499016404653</v>
+        <v>165.3318837899643</v>
       </c>
       <c r="E18" t="n">
-        <v>15.08499016404653</v>
+        <v>165.3318837899643</v>
       </c>
       <c r="F18" t="n">
-        <v>15.08499016404653</v>
+        <v>165.3318837899643</v>
       </c>
       <c r="G18" t="n">
         <v>15.08499016404653</v>
@@ -5595,7 +5595,7 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L18" t="n">
         <v>170.4486221681695</v>
@@ -5625,19 +5625,19 @@
         <v>373.3154131506464</v>
       </c>
       <c r="U18" t="n">
-        <v>205.5520376898865</v>
+        <v>373.3154131506464</v>
       </c>
       <c r="V18" t="n">
-        <v>205.5520376898865</v>
+        <v>182.8483656248064</v>
       </c>
       <c r="W18" t="n">
-        <v>205.5520376898865</v>
+        <v>165.3318837899643</v>
       </c>
       <c r="X18" t="n">
-        <v>15.08499016404653</v>
+        <v>165.3318837899643</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.08499016404653</v>
+        <v>165.3318837899643</v>
       </c>
     </row>
     <row r="19">
@@ -5726,67 +5726,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340413</v>
+        <v>463.5335379340411</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844276</v>
+        <v>410.2194918844273</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438558</v>
+        <v>369.4643728438552</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372144</v>
+        <v>294.6620291372135</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019091</v>
+        <v>187.8189404019088</v>
       </c>
       <c r="G20" t="n">
-        <v>65.17929883267293</v>
+        <v>65.17929883267298</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>70.9484892689739</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J20" t="n">
-        <v>257.6252425490496</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="K20" t="n">
-        <v>257.6252425490496</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="L20" t="n">
-        <v>304.3985807793437</v>
+        <v>248.5350816744163</v>
       </c>
       <c r="M20" t="n">
-        <v>385.3188915024954</v>
+        <v>329.4553923975681</v>
       </c>
       <c r="N20" t="n">
-        <v>460.7061414357336</v>
+        <v>404.8426423308062</v>
       </c>
       <c r="O20" t="n">
-        <v>494.9828250691632</v>
+        <v>439.1193259642358</v>
       </c>
       <c r="P20" t="n">
-        <v>494.9828250691632</v>
+        <v>564.0214906197996</v>
       </c>
       <c r="Q20" t="n">
-        <v>494.9828250691632</v>
+        <v>564.0214906197996</v>
       </c>
       <c r="R20" t="n">
-        <v>564.0214906197992</v>
+        <v>564.0214906197996</v>
       </c>
       <c r="S20" t="n">
-        <v>633.2375922995766</v>
+        <v>633.2375922995768</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933591</v>
+        <v>707.4481717933592</v>
       </c>
       <c r="U20" t="n">
         <v>754.2495082023263</v>
       </c>
       <c r="V20" t="n">
-        <v>730.5573952557698</v>
+        <v>730.5573952557697</v>
       </c>
       <c r="W20" t="n">
         <v>689.6767164338451</v>
@@ -5795,7 +5795,7 @@
         <v>626.6887139059208</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075484</v>
+        <v>540.9705567075483</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>499.675203907518</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="C21" t="n">
-        <v>499.675203907518</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="D21" t="n">
-        <v>338.8950876685498</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="E21" t="n">
-        <v>165.3318837899643</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="F21" t="n">
-        <v>165.3318837899643</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="G21" t="n">
-        <v>15.08499016404653</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H21" t="n">
         <v>15.08499016404653</v>
@@ -5832,13 +5832,13 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635121</v>
+        <v>53.07705719635119</v>
       </c>
       <c r="L21" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486676</v>
       </c>
       <c r="N21" t="n">
         <v>538.8471199287434</v>
@@ -5850,31 +5850,31 @@
         <v>754.2495082023263</v>
       </c>
       <c r="Q21" t="n">
-        <v>754.2495082023263</v>
+        <v>747.33384509054</v>
       </c>
       <c r="R21" t="n">
-        <v>754.2495082023263</v>
+        <v>747.33384509054</v>
       </c>
       <c r="S21" t="n">
-        <v>754.2495082023263</v>
+        <v>556.8667975646999</v>
       </c>
       <c r="T21" t="n">
-        <v>690.1422514333581</v>
+        <v>523.0229117222673</v>
       </c>
       <c r="U21" t="n">
-        <v>690.1422514333581</v>
+        <v>332.5558641964273</v>
       </c>
       <c r="V21" t="n">
-        <v>690.1422514333581</v>
+        <v>332.5558641964273</v>
       </c>
       <c r="W21" t="n">
-        <v>499.675203907518</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="X21" t="n">
-        <v>499.675203907518</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="Y21" t="n">
-        <v>499.675203907518</v>
+        <v>142.0888166705873</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340405</v>
+        <v>463.5335379340415</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844268</v>
+        <v>410.2194918844277</v>
       </c>
       <c r="D23" t="n">
-        <v>369.464372843855</v>
+        <v>369.4643728438558</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372144</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019085</v>
+        <v>187.818940401909</v>
       </c>
       <c r="G23" t="n">
-        <v>65.17929883267291</v>
+        <v>65.179298832673</v>
       </c>
       <c r="H23" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I23" t="n">
-        <v>70.94848926897389</v>
+        <v>70.94848926897383</v>
       </c>
       <c r="J23" t="n">
-        <v>257.6252425490495</v>
+        <v>225.1253958967715</v>
       </c>
       <c r="K23" t="n">
-        <v>257.6252425490495</v>
+        <v>225.1253958967715</v>
       </c>
       <c r="L23" t="n">
-        <v>304.3985807793435</v>
+        <v>271.8987341270655</v>
       </c>
       <c r="M23" t="n">
-        <v>385.3188915024953</v>
+        <v>352.8190448502173</v>
       </c>
       <c r="N23" t="n">
-        <v>460.7061414357334</v>
+        <v>428.2062947834554</v>
       </c>
       <c r="O23" t="n">
-        <v>494.982825069163</v>
+        <v>462.482978416885</v>
       </c>
       <c r="P23" t="n">
-        <v>494.982825069163</v>
+        <v>462.482978416885</v>
       </c>
       <c r="Q23" t="n">
-        <v>531.6990800966609</v>
+        <v>462.482978416885</v>
       </c>
       <c r="R23" t="n">
-        <v>633.2375922995759</v>
+        <v>564.0214906198</v>
       </c>
       <c r="S23" t="n">
-        <v>633.2375922995759</v>
+        <v>633.2375922995773</v>
       </c>
       <c r="T23" t="n">
-        <v>707.4481717933584</v>
+        <v>707.4481717933596</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023256</v>
+        <v>754.2495082023268</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557693</v>
+        <v>730.5573952557703</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338444</v>
+        <v>689.6767164338453</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059202</v>
+        <v>626.6887139059211</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075476</v>
+        <v>540.9705567075487</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>427.7131290093811</v>
+        <v>699.2683008313926</v>
       </c>
       <c r="C24" t="n">
-        <v>427.7131290093811</v>
+        <v>509.8560265643563</v>
       </c>
       <c r="D24" t="n">
-        <v>427.7131290093811</v>
+        <v>349.075910325388</v>
       </c>
       <c r="E24" t="n">
-        <v>254.1499251307955</v>
+        <v>175.5127064468024</v>
       </c>
       <c r="F24" t="n">
-        <v>93.72220884803963</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G24" t="n">
-        <v>93.72220884803963</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H24" t="n">
-        <v>93.72220884803963</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I24" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J24" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K24" t="n">
         <v>53.07705719635119</v>
@@ -6078,40 +6078,40 @@
         <v>352.1703666486676</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287432</v>
+        <v>538.8471199287434</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110301</v>
+        <v>670.5904072110303</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023261</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023261</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="R24" t="n">
-        <v>618.1801765352209</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="S24" t="n">
-        <v>618.1801765352209</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="T24" t="n">
-        <v>618.1801765352209</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="U24" t="n">
-        <v>618.1801765352209</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="V24" t="n">
-        <v>618.1801765352209</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="W24" t="n">
-        <v>618.1801765352209</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="X24" t="n">
-        <v>427.7131290093811</v>
+        <v>754.2495082023263</v>
       </c>
       <c r="Y24" t="n">
-        <v>427.7131290093811</v>
+        <v>754.2495082023263</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="M25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="N25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="O25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="P25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="R25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="S25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="T25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="U25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="V25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="W25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="X25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.08499016404651</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1021.012157971339</v>
+        <v>1021.01215797134</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792723</v>
+        <v>882.8924400792732</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962476</v>
+        <v>757.3316491962485</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471533</v>
+        <v>597.7236336471542</v>
       </c>
       <c r="F26" t="n">
-        <v>406.074873069395</v>
+        <v>406.0748730693959</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6295596577061</v>
+        <v>198.6295596577069</v>
       </c>
       <c r="H26" t="n">
         <v>63.72957914662737</v>
@@ -6230,10 +6230,10 @@
         <v>375.9831015629837</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946301</v>
+        <v>634.0887466946297</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191338</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153724</v>
@@ -6254,22 +6254,22 @@
         <v>1781.898883169497</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.810566182448</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.756487451889</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.25870266288</v>
+        <v>1627.258702662881</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.572351998502</v>
+        <v>1501.572351998503</v>
       </c>
       <c r="X26" t="n">
         <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.254848587299</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>386.1140522280214</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="C27" t="n">
-        <v>196.7017779609851</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="D27" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="E27" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="F27" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="G27" t="n">
-        <v>35.92166172201684</v>
+        <v>162.9254882285576</v>
       </c>
       <c r="H27" t="n">
         <v>35.92166172201684</v>
@@ -6312,7 +6312,7 @@
         <v>191.2852937261398</v>
       </c>
       <c r="M27" t="n">
-        <v>373.007038206638</v>
+        <v>373.0070382066379</v>
       </c>
       <c r="N27" t="n">
         <v>577.9583061004877</v>
@@ -6324,31 +6324,31 @@
         <v>793.3606943740706</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.4450312622843</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="R27" t="n">
-        <v>685.3035432080343</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="S27" t="n">
-        <v>685.3035432080343</v>
+        <v>599.8380156942</v>
       </c>
       <c r="T27" t="n">
-        <v>683.7851368667509</v>
+        <v>598.3196093529166</v>
       </c>
       <c r="U27" t="n">
-        <v>659.7840449466526</v>
+        <v>574.3185174328182</v>
       </c>
       <c r="V27" t="n">
-        <v>632.3275356058753</v>
+        <v>546.8620080920409</v>
       </c>
       <c r="W27" t="n">
-        <v>578.5521750917552</v>
+        <v>392.4509669209449</v>
       </c>
       <c r="X27" t="n">
-        <v>574.6673894640402</v>
+        <v>388.56618129323</v>
       </c>
       <c r="Y27" t="n">
-        <v>564.6499051549565</v>
+        <v>162.9254882285576</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.41321716505087</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C28" t="n">
-        <v>117.9529149041507</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D28" t="n">
-        <v>185.5543980572995</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E28" t="n">
-        <v>256.6273251585492</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="F28" t="n">
-        <v>256.6273251585492</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="G28" t="n">
-        <v>266.2898381224434</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="H28" t="n">
-        <v>266.2898381224434</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="I28" t="n">
-        <v>266.2898381224434</v>
+        <v>106.9945888232665</v>
       </c>
       <c r="J28" t="n">
-        <v>266.2898381224434</v>
+        <v>199.3002339599209</v>
       </c>
       <c r="K28" t="n">
-        <v>266.2898381224434</v>
+        <v>199.3002339599209</v>
       </c>
       <c r="L28" t="n">
-        <v>266.2898381224434</v>
+        <v>199.3002339599209</v>
       </c>
       <c r="M28" t="n">
         <v>266.2898381224434</v>
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971339</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8924400792736</v>
+        <v>882.8924400792724</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962488</v>
+        <v>757.3316491962477</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471544</v>
+        <v>597.7236336471533</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693962</v>
+        <v>406.074873069395</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6295596577072</v>
+        <v>198.6295596577061</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662786</v>
+        <v>63.72957914662675</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2683996847219</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629839</v>
+        <v>375.9831015629837</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946302</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191345</v>
+        <v>926.3413643191344</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153725</v>
@@ -6482,19 +6482,19 @@
         <v>1655.109002436484</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.662612870716</v>
+        <v>1777.662612870715</v>
       </c>
       <c r="R29" t="n">
         <v>1796.083086100842</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.898883169498</v>
+        <v>1781.898883169497</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.756487451891</v>
+        <v>1735.75648745189</v>
       </c>
       <c r="V29" t="n">
         <v>1627.258702662881</v>
@@ -6503,10 +6503,10 @@
         <v>1501.572351998503</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587299</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>249.337443304828</v>
+        <v>347.5982573945265</v>
       </c>
       <c r="C30" t="n">
-        <v>249.337443304828</v>
+        <v>347.5982573945265</v>
       </c>
       <c r="D30" t="n">
-        <v>249.337443304828</v>
+        <v>347.5982573945265</v>
       </c>
       <c r="E30" t="n">
-        <v>249.337443304828</v>
+        <v>347.5982573945265</v>
       </c>
       <c r="F30" t="n">
-        <v>88.90972702207205</v>
+        <v>347.5982573945265</v>
       </c>
       <c r="G30" t="n">
-        <v>88.90972702207205</v>
+        <v>197.3513637686087</v>
       </c>
       <c r="H30" t="n">
-        <v>88.90972702207205</v>
+        <v>197.3513637686087</v>
       </c>
       <c r="I30" t="n">
         <v>88.90972702207205</v>
       </c>
       <c r="J30" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K30" t="n">
-        <v>73.91372875432153</v>
+        <v>73.91372875432151</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2852937261399</v>
+        <v>191.2852937261398</v>
       </c>
       <c r="M30" t="n">
-        <v>373.007038206638</v>
+        <v>373.0070382066379</v>
       </c>
       <c r="N30" t="n">
         <v>577.9583061004877</v>
@@ -6561,31 +6561,31 @@
         <v>793.3606943740706</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.4450312622843</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="R30" t="n">
-        <v>650.3756995951791</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="S30" t="n">
-        <v>456.8530209153084</v>
+        <v>793.3606943740706</v>
       </c>
       <c r="T30" t="n">
-        <v>455.3346145740251</v>
+        <v>791.8422880327872</v>
       </c>
       <c r="U30" t="n">
-        <v>431.3335226539267</v>
+        <v>552.2179873571001</v>
       </c>
       <c r="V30" t="n">
-        <v>403.8770133131495</v>
+        <v>415.2758878454451</v>
       </c>
       <c r="W30" t="n">
-        <v>350.1016527990295</v>
+        <v>361.5005273313251</v>
       </c>
       <c r="X30" t="n">
-        <v>259.3549276139116</v>
+        <v>357.6157417036102</v>
       </c>
       <c r="Y30" t="n">
-        <v>249.337443304828</v>
+        <v>347.5982573945265</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F31" t="n">
-        <v>42.44695565524989</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G31" t="n">
-        <v>86.76564459714263</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H31" t="n">
-        <v>86.76564459714263</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I31" t="n">
-        <v>86.76564459714263</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J31" t="n">
-        <v>86.76564459714263</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K31" t="n">
-        <v>86.76564459714263</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="L31" t="n">
-        <v>266.2898381224434</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="M31" t="n">
-        <v>266.2898381224434</v>
+        <v>112.8332968425536</v>
       </c>
       <c r="N31" t="n">
-        <v>266.2898381224434</v>
+        <v>112.8332968425536</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224434</v>
+        <v>112.8332968425536</v>
       </c>
       <c r="P31" t="n">
         <v>266.2898381224434</v>
@@ -6658,13 +6658,13 @@
         <v>125.7908590024693</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398191</v>
+        <v>48.1709292839819</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063872</v>
+        <v>39.63307197063871</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1021.01215797134</v>
+        <v>1021.012157971341</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792733</v>
+        <v>882.8924400792738</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962483</v>
+        <v>757.3316491962489</v>
       </c>
       <c r="E32" t="n">
-        <v>597.723633647154</v>
+        <v>597.7236336471545</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693956</v>
+        <v>406.0748730693961</v>
       </c>
       <c r="G32" t="n">
         <v>198.6295596577069</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662748</v>
+        <v>63.72957914662747</v>
       </c>
       <c r="I32" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J32" t="n">
         <v>171.2683996847217</v>
@@ -6707,7 +6707,7 @@
         <v>634.0887466946299</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191341</v>
+        <v>926.3413643191345</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
@@ -6719,7 +6719,7 @@
         <v>1655.109002436484</v>
       </c>
       <c r="Q32" t="n">
-        <v>1777.662612870716</v>
+        <v>1777.662612870715</v>
       </c>
       <c r="R32" t="n">
         <v>1796.083086100842</v>
@@ -6731,7 +6731,7 @@
         <v>1772.810566182449</v>
       </c>
       <c r="U32" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451891</v>
       </c>
       <c r="V32" t="n">
         <v>1627.258702662881</v>
@@ -6743,7 +6743,7 @@
         <v>1353.778677628126</v>
       </c>
       <c r="Y32" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587301</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K33" t="n">
-        <v>73.91372875432153</v>
+        <v>73.91372875432151</v>
       </c>
       <c r="L33" t="n">
-        <v>191.2852937261399</v>
+        <v>191.2852937261398</v>
       </c>
       <c r="M33" t="n">
-        <v>373.007038206638</v>
+        <v>373.0070382066379</v>
       </c>
       <c r="N33" t="n">
         <v>577.9583061004877</v>
@@ -6816,13 +6816,13 @@
         <v>534.845709684113</v>
       </c>
       <c r="W33" t="n">
-        <v>265.4471404144043</v>
+        <v>481.0703491699928</v>
       </c>
       <c r="X33" t="n">
         <v>261.5623547866892</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="34">
@@ -6832,61 +6832,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.4132171650508</v>
+        <v>71.41321716505078</v>
       </c>
       <c r="C34" t="n">
-        <v>71.4132171650508</v>
+        <v>117.9529149041505</v>
       </c>
       <c r="D34" t="n">
-        <v>71.4132171650508</v>
+        <v>185.5543980572993</v>
       </c>
       <c r="E34" t="n">
-        <v>71.4132171650508</v>
+        <v>256.6273251585489</v>
       </c>
       <c r="F34" t="n">
-        <v>71.4132171650508</v>
+        <v>256.6273251585489</v>
       </c>
       <c r="G34" t="n">
-        <v>71.4132171650508</v>
+        <v>256.6273251585489</v>
       </c>
       <c r="H34" t="n">
-        <v>71.4132171650508</v>
+        <v>256.6273251585489</v>
       </c>
       <c r="I34" t="n">
-        <v>71.4132171650508</v>
+        <v>256.6273251585489</v>
       </c>
       <c r="J34" t="n">
-        <v>71.4132171650508</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="K34" t="n">
-        <v>216.4031801960912</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="L34" t="n">
-        <v>216.4031801960912</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="M34" t="n">
-        <v>216.4031801960912</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="N34" t="n">
-        <v>216.4031801960912</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="O34" t="n">
-        <v>216.4031801960912</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="P34" t="n">
-        <v>216.4031801960912</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="Q34" t="n">
-        <v>256.3464833623379</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="R34" t="n">
-        <v>266.289838122444</v>
+        <v>266.2898381224439</v>
       </c>
       <c r="S34" t="n">
         <v>244.099493717747</v>
       </c>
       <c r="T34" t="n">
-        <v>233.701576775752</v>
+        <v>233.7015767757519</v>
       </c>
       <c r="U34" t="n">
         <v>157.7525140695577</v>
@@ -6895,13 +6895,13 @@
         <v>125.7908590024696</v>
       </c>
       <c r="W34" t="n">
-        <v>48.17092928398208</v>
+        <v>48.17092928398207</v>
       </c>
       <c r="X34" t="n">
         <v>39.6330719706388</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.92166172201685</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837461</v>
+        <v>623.0119765837459</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248354</v>
+        <v>544.0768043248352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749668</v>
+        <v>477.7005590749666</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2770891590285</v>
+        <v>377.2770891590283</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144263</v>
+        <v>244.8128742144261</v>
       </c>
       <c r="G35" t="n">
         <v>96.55210643589363</v>
@@ -6932,55 +6932,55 @@
         <v>20.83667155797032</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58890486516579</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J35" t="n">
-        <v>51.58890486516579</v>
+        <v>153.0751519522865</v>
       </c>
       <c r="K35" t="n">
-        <v>147.0825399687311</v>
+        <v>410.9289624821692</v>
       </c>
       <c r="L35" t="n">
-        <v>193.8558781990251</v>
+        <v>668.7827730120518</v>
       </c>
       <c r="M35" t="n">
-        <v>274.7761889221769</v>
+        <v>749.7030837352036</v>
       </c>
       <c r="N35" t="n">
-        <v>532.6299994520596</v>
+        <v>1007.556894265086</v>
       </c>
       <c r="O35" t="n">
-        <v>790.4838099819423</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="P35" t="n">
-        <v>790.4838099819423</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="Q35" t="n">
-        <v>971.0441935912302</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="R35" t="n">
-        <v>971.0441935912302</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0441935912302</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.143507287281</v>
+        <v>1041.833577898516</v>
       </c>
       <c r="U35" t="n">
         <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426625</v>
+        <v>992.5203387426623</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114406</v>
+        <v>926.0185337114403</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742196</v>
+        <v>837.4094049742193</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665501</v>
+        <v>726.0701215665499</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.83667155797032</v>
+        <v>70.03772941393805</v>
       </c>
       <c r="C36" t="n">
-        <v>20.83667155797032</v>
+        <v>70.03772941393805</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83667155797032</v>
+        <v>70.03772941393805</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83667155797032</v>
+        <v>70.03772941393805</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797032</v>
+        <v>70.03772941393805</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797032</v>
+        <v>70.03772941393805</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797032</v>
+        <v>70.03772941393805</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83667155797032</v>
+        <v>70.03772941393805</v>
       </c>
       <c r="J36" t="n">
         <v>20.83667155797032</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027499</v>
+        <v>58.82873859027498</v>
       </c>
       <c r="L36" t="n">
         <v>176.2003035620933</v>
@@ -7047,19 +7047,19 @@
         <v>778.2757042100241</v>
       </c>
       <c r="U36" t="n">
-        <v>746.5136713857501</v>
+        <v>778.2757042100241</v>
       </c>
       <c r="V36" t="n">
-        <v>503.4339532893841</v>
+        <v>778.2757042100241</v>
       </c>
       <c r="W36" t="n">
-        <v>240.344665941274</v>
+        <v>515.186416861914</v>
       </c>
       <c r="X36" t="n">
-        <v>20.83667155797032</v>
+        <v>295.6784224786104</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.83667155797032</v>
+        <v>70.03772941393805</v>
       </c>
     </row>
     <row r="37">
@@ -7072,58 +7072,58 @@
         <v>20.83667155797032</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U37" t="n">
         <v>39.27205564330168</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0119765837464</v>
+        <v>623.0119765837462</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0768043248358</v>
+        <v>544.0768043248356</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749671</v>
+        <v>477.7005590749669</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590288</v>
+        <v>377.2770891590287</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144265</v>
+        <v>244.8128742144264</v>
       </c>
       <c r="G38" t="n">
         <v>96.55210643589363</v>
@@ -7169,55 +7169,55 @@
         <v>20.83667155797032</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58890486516579</v>
+        <v>51.58890486516577</v>
       </c>
       <c r="J38" t="n">
-        <v>244.942416002927</v>
+        <v>244.9424160029269</v>
       </c>
       <c r="K38" t="n">
-        <v>502.7962265328097</v>
+        <v>502.7962265328096</v>
       </c>
       <c r="L38" t="n">
-        <v>549.5695647631037</v>
+        <v>549.5695647631036</v>
       </c>
       <c r="M38" t="n">
-        <v>630.4898754862555</v>
+        <v>630.4898754862553</v>
       </c>
       <c r="N38" t="n">
-        <v>705.8771254194937</v>
+        <v>705.8771254194935</v>
       </c>
       <c r="O38" t="n">
-        <v>740.1538090529233</v>
+        <v>963.7309359493761</v>
       </c>
       <c r="P38" t="n">
-        <v>740.1538090529233</v>
+        <v>963.7309359493761</v>
       </c>
       <c r="Q38" t="n">
-        <v>920.7141926622112</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="R38" t="n">
-        <v>997.1414390673943</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.24627494944</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.24627494944</v>
+        <v>1020.14350728728</v>
       </c>
       <c r="U38" t="n">
         <v>1041.833577898516</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5203387426627</v>
+        <v>992.5203387426625</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0185337114409</v>
+        <v>926.0185337114407</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4094049742198</v>
+        <v>837.4094049742196</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0701215665505</v>
+        <v>726.0701215665503</v>
       </c>
     </row>
     <row r="39">
@@ -7254,7 +7254,7 @@
         <v>20.83667155797032</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027499</v>
+        <v>58.82873859027498</v>
       </c>
       <c r="L39" t="n">
         <v>176.2003035620933</v>
@@ -7284,16 +7284,16 @@
         <v>778.2757042100241</v>
       </c>
       <c r="U39" t="n">
-        <v>746.5136713857501</v>
+        <v>778.2757042100241</v>
       </c>
       <c r="V39" t="n">
-        <v>503.4339532893841</v>
+        <v>729.0746463540563</v>
       </c>
       <c r="W39" t="n">
-        <v>240.344665941274</v>
+        <v>465.9853590059463</v>
       </c>
       <c r="X39" t="n">
-        <v>20.83667155797032</v>
+        <v>246.4773646226427</v>
       </c>
       <c r="Y39" t="n">
         <v>20.83667155797032</v>
@@ -7315,52 +7315,52 @@
         <v>20.83667155797032</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633977</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="U40" t="n">
         <v>39.27205564330168</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676713</v>
+        <v>818.5041758676717</v>
       </c>
       <c r="C41" t="n">
-        <v>708.192375400215</v>
+        <v>708.1923754002155</v>
       </c>
       <c r="D41" t="n">
-        <v>610.4395019418009</v>
+        <v>610.4395019418014</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6394038173171</v>
+        <v>478.6394038173175</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641692</v>
+        <v>314.7985606641696</v>
       </c>
       <c r="G41" t="n">
         <v>135.1611646770912</v>
@@ -7409,22 +7409,22 @@
         <v>28.06910159062235</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6703794211881</v>
+        <v>190.670379421188</v>
       </c>
       <c r="K41" t="n">
-        <v>422.6396211673109</v>
+        <v>422.6396211673108</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9998061668182</v>
+        <v>707.999806166818</v>
       </c>
       <c r="M41" t="n">
-        <v>788.92011688997</v>
+        <v>1027.506963659183</v>
       </c>
       <c r="N41" t="n">
-        <v>918.3019189180653</v>
+        <v>1102.894213592421</v>
       </c>
       <c r="O41" t="n">
-        <v>952.5786025514949</v>
+        <v>1137.170897225851</v>
       </c>
       <c r="P41" t="n">
         <v>1176.272233167332</v>
@@ -7448,13 +7448,13 @@
         <v>1313.51905086077</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.640617621002</v>
+        <v>1215.640617621003</v>
       </c>
       <c r="X41" t="n">
         <v>1095.654860675236</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.9389490590208</v>
+        <v>952.9389490590213</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>296.938454619915</v>
+        <v>155.0729280971632</v>
       </c>
       <c r="C42" t="n">
-        <v>296.938454619915</v>
+        <v>155.0729280971632</v>
       </c>
       <c r="D42" t="n">
-        <v>296.938454619915</v>
+        <v>155.0729280971632</v>
       </c>
       <c r="E42" t="n">
-        <v>296.938454619915</v>
+        <v>155.0729280971632</v>
       </c>
       <c r="F42" t="n">
-        <v>136.510738337159</v>
+        <v>155.0729280971632</v>
       </c>
       <c r="G42" t="n">
-        <v>136.510738337159</v>
+        <v>155.0729280971632</v>
       </c>
       <c r="H42" t="n">
-        <v>136.510738337159</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I42" t="n">
         <v>28.06910159062235</v>
@@ -7491,7 +7491,7 @@
         <v>28.06910159062235</v>
       </c>
       <c r="K42" t="n">
-        <v>66.06116862292703</v>
+        <v>66.06116862292701</v>
       </c>
       <c r="L42" t="n">
         <v>183.4327335947453</v>
@@ -7518,22 +7518,22 @@
         <v>785.5081342426761</v>
       </c>
       <c r="T42" t="n">
-        <v>568.3665191458041</v>
+        <v>785.5081342426761</v>
       </c>
       <c r="U42" t="n">
-        <v>328.742218470117</v>
+        <v>785.5081342426761</v>
       </c>
       <c r="V42" t="n">
-        <v>322.9058977094244</v>
+        <v>626.1890586346486</v>
       </c>
       <c r="W42" t="n">
-        <v>296.938454619915</v>
+        <v>600.2216155451391</v>
       </c>
       <c r="X42" t="n">
-        <v>296.938454619915</v>
+        <v>380.7136211618355</v>
       </c>
       <c r="Y42" t="n">
-        <v>296.938454619915</v>
+        <v>155.0729280971632</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.81519690151717</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="D43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="E43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Q43" t="n">
         <v>130.1759968085603</v>
@@ -7646,31 +7646,31 @@
         <v>28.06910159062235</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6703794211881</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K44" t="n">
-        <v>422.6396211673109</v>
+        <v>193.4030295452959</v>
       </c>
       <c r="L44" t="n">
-        <v>523.407511492462</v>
+        <v>478.7632145448031</v>
       </c>
       <c r="M44" t="n">
-        <v>604.3278222156139</v>
+        <v>798.270372037168</v>
       </c>
       <c r="N44" t="n">
-        <v>918.3019189180653</v>
+        <v>1112.244468739619</v>
       </c>
       <c r="O44" t="n">
-        <v>952.5786025514949</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.272233167332</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="Q44" t="n">
-        <v>1326.080383469425</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.755396567412</v>
+        <v>1385.107999142262</v>
       </c>
       <c r="S44" t="n">
         <v>1385.107999142262</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.06910159062235</v>
+        <v>499.5238277382642</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06910159062235</v>
+        <v>499.5238277382642</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06910159062235</v>
+        <v>338.743711499296</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06910159062235</v>
+        <v>338.743711499296</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062235</v>
+        <v>178.3159952165401</v>
       </c>
       <c r="G45" t="n">
         <v>28.06910159062235</v>
@@ -7728,7 +7728,7 @@
         <v>28.06910159062235</v>
       </c>
       <c r="K45" t="n">
-        <v>66.06116862292703</v>
+        <v>66.06116862292701</v>
       </c>
       <c r="L45" t="n">
         <v>183.4327335947453</v>
@@ -7758,19 +7758,19 @@
         <v>785.5081342426761</v>
       </c>
       <c r="U45" t="n">
-        <v>545.883833566989</v>
+        <v>785.5081342426761</v>
       </c>
       <c r="V45" t="n">
-        <v>545.883833566989</v>
+        <v>785.5081342426761</v>
       </c>
       <c r="W45" t="n">
-        <v>473.2177890385983</v>
+        <v>725.1645208029365</v>
       </c>
       <c r="X45" t="n">
-        <v>253.7097946552947</v>
+        <v>725.1645208029365</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.06910159062235</v>
+        <v>499.5238277382642</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.81519690151717</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="C46" t="n">
-        <v>90.81519690151717</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="E46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="F46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="G46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="H46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="I46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="J46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="K46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="L46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="M46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="N46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="O46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="P46" t="n">
-        <v>113.1124553355488</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.1124553355488</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="R46" t="n">
-        <v>113.1124553355488</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="S46" t="n">
-        <v>113.1124553355488</v>
+        <v>130.1759968085603</v>
       </c>
       <c r="T46" t="n">
         <v>130.1759968085603</v>
@@ -7846,10 +7846,10 @@
         <v>28.06910159062235</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062235</v>
+        <v>46.95568750567548</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062235</v>
+        <v>46.95568750567548</v>
       </c>
     </row>
   </sheetData>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9006,7 +9006,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9246,13 +9246,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>240.3045437566415</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1547529041438</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1547529041437</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.56253726669519</v>
+        <v>195.757591053278</v>
       </c>
       <c r="C11" t="n">
-        <v>171.8758480566236</v>
+        <v>171.8758480566235</v>
       </c>
       <c r="D11" t="n">
-        <v>159.442510317672</v>
+        <v>159.4425103176719</v>
       </c>
       <c r="E11" t="n">
-        <v>4.586885686499329</v>
+        <v>193.1492627370808</v>
       </c>
       <c r="F11" t="n">
-        <v>224.8696003154582</v>
+        <v>224.8696003154581</v>
       </c>
       <c r="G11" t="n">
-        <v>240.5081876210496</v>
+        <v>240.5081876210495</v>
       </c>
       <c r="H11" t="n">
-        <v>168.6883080494461</v>
+        <v>148.2879292342443</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384196</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718768</v>
+        <v>16.5307887271876</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13476116065502</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673099</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.5501342845968</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012116</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.39354104331306</v>
+        <v>203.9559180938946</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.7575910532781</v>
+        <v>195.757591053278</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8758480566236</v>
+        <v>171.8758480566235</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.4425103176719</v>
       </c>
       <c r="E14" t="n">
-        <v>193.1492627370809</v>
+        <v>4.586885686499244</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154582</v>
+        <v>68.20533525606277</v>
       </c>
       <c r="G14" t="n">
-        <v>51.94581057046798</v>
+        <v>51.9458105704679</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494461</v>
+        <v>168.688308049446</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384187</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718768</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550868</v>
+        <v>49.1796882455086</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13476116065502</v>
+        <v>44.13476116065493</v>
       </c>
       <c r="U14" t="n">
-        <v>52.83699417673814</v>
+        <v>71.82086528673091</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.5501342845967</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.5668145012116</v>
       </c>
       <c r="X14" t="n">
-        <v>181.4530649701509</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>203.9559180938946</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>418917.6977088184</v>
+      </c>
+      <c r="C2" t="n">
         <v>418917.6977088182</v>
       </c>
-      <c r="C2" t="n">
-        <v>418917.6977088183</v>
-      </c>
       <c r="D2" t="n">
-        <v>418917.6977088184</v>
+        <v>418917.6977088182</v>
       </c>
       <c r="E2" t="n">
-        <v>360995.2922847279</v>
+        <v>360995.2922847282</v>
       </c>
       <c r="F2" t="n">
-        <v>360995.2922847281</v>
+        <v>360995.292284728</v>
       </c>
       <c r="G2" t="n">
+        <v>419766.3107078047</v>
+      </c>
+      <c r="H2" t="n">
         <v>419766.3107078048</v>
       </c>
-      <c r="H2" t="n">
-        <v>419766.3107078047</v>
-      </c>
       <c r="I2" t="n">
-        <v>419766.3107078049</v>
+        <v>419766.3107078046</v>
       </c>
       <c r="J2" t="n">
-        <v>419766.3107078045</v>
+        <v>419766.3107078043</v>
       </c>
       <c r="K2" t="n">
         <v>419766.3107078043</v>
       </c>
       <c r="L2" t="n">
+        <v>419766.3107078044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>419766.3107078046</v>
+      </c>
+      <c r="N2" t="n">
         <v>419766.3107078045</v>
       </c>
-      <c r="M2" t="n">
-        <v>419766.3107078047</v>
-      </c>
-      <c r="N2" t="n">
-        <v>419766.3107078046</v>
-      </c>
       <c r="O2" t="n">
-        <v>419766.3107078046</v>
+        <v>419766.3107078045</v>
       </c>
       <c r="P2" t="n">
-        <v>419766.3107078046</v>
+        <v>419766.3107078045</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400478</v>
+        <v>95275.95397400466</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.9539740047</v>
+        <v>95275.9539740046</v>
       </c>
       <c r="M3" t="n">
         <v>46874.16014145967</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660016</v>
+        <v>72403.4818166003</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26448,7 +26448,7 @@
         <v>390873.6905933486</v>
       </c>
       <c r="M4" t="n">
-        <v>390048.6636155473</v>
+        <v>390048.6636155472</v>
       </c>
       <c r="N4" t="n">
         <v>390048.6636155473</v>
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28663.94612301864</v>
+        <v>28663.94612301865</v>
       </c>
       <c r="F5" t="n">
-        <v>28663.94612301864</v>
+        <v>28663.94612301865</v>
       </c>
       <c r="G5" t="n">
-        <v>38676.13884131941</v>
+        <v>38676.1388413194</v>
       </c>
       <c r="H5" t="n">
-        <v>38676.13884131941</v>
+        <v>38676.1388413194</v>
       </c>
       <c r="I5" t="n">
-        <v>38676.13884131939</v>
+        <v>38676.1388413194</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.77647951489</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="K5" t="n">
         <v>47453.7764795149</v>
       </c>
       <c r="L5" t="n">
-        <v>47453.7764795149</v>
+        <v>47453.77647951488</v>
       </c>
       <c r="M5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="O5" t="n">
-        <v>43800.23675152497</v>
+        <v>43800.23675152496</v>
       </c>
       <c r="P5" t="n">
-        <v>43800.23675152497</v>
+        <v>43800.23675152496</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44944.03779887701</v>
+        <v>-44948.50418308203</v>
       </c>
       <c r="C6" t="n">
-        <v>-44944.03779887695</v>
+        <v>-44948.5041830822</v>
       </c>
       <c r="D6" t="n">
-        <v>-44944.0377988769</v>
+        <v>-44948.5041830822</v>
       </c>
       <c r="E6" t="n">
-        <v>-267525.3930818035</v>
+        <v>-267834.7142313984</v>
       </c>
       <c r="F6" t="n">
-        <v>12787.44910240306</v>
+        <v>12478.12795280785</v>
       </c>
       <c r="G6" t="n">
-        <v>-104192.6555715331</v>
+        <v>-104192.655571533</v>
       </c>
       <c r="H6" t="n">
-        <v>-8916.701597528343</v>
+        <v>-8916.701597528277</v>
       </c>
       <c r="I6" t="n">
-        <v>-8916.701597528212</v>
+        <v>-8916.70159752851</v>
       </c>
       <c r="J6" t="n">
-        <v>-162206.1598894003</v>
+        <v>-162206.1598894006</v>
       </c>
       <c r="K6" t="n">
         <v>-18561.15636505926</v>
@@ -26552,16 +26552,16 @@
         <v>-113837.1103390637</v>
       </c>
       <c r="M6" t="n">
-        <v>-58071.52671520721</v>
+        <v>-58071.52671520726</v>
       </c>
       <c r="N6" t="n">
-        <v>-11197.36657374772</v>
+        <v>-11197.36657374777</v>
       </c>
       <c r="O6" t="n">
-        <v>-86873.3148486056</v>
+        <v>-86873.31484860589</v>
       </c>
       <c r="P6" t="n">
-        <v>-14469.83303200542</v>
+        <v>-14469.83303200552</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G2" t="n">
         <v>297.4245917920612</v>
@@ -26808,16 +26808,16 @@
         <v>188.5623770505816</v>
       </c>
       <c r="I4" t="n">
-        <v>188.5623770505814</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="J4" t="n">
         <v>449.0207715252104</v>
       </c>
       <c r="K4" t="n">
-        <v>449.0207715252106</v>
+        <v>449.0207715252105</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0207715252106</v>
+        <v>449.0207715252105</v>
       </c>
       <c r="M4" t="n">
         <v>260.458394474629</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052694</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675059</v>
+        <v>119.0949424675057</v>
       </c>
       <c r="M2" t="n">
         <v>58.59270017682459</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406673</v>
+        <v>63.30917227406687</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.458394474629</v>
+        <v>260.4583944746288</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815035</v>
+        <v>90.40537540815041</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.094942467506</v>
+        <v>119.0949424675058</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.3720342005268</v>
+        <v>94.37203420052694</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="J11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K11" t="n">
-        <v>47.62975783801412</v>
+        <v>160.0433975822945</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V12" t="n">
-        <v>178.3296493245552</v>
+        <v>52.08654386482067</v>
       </c>
       <c r="W12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y12" t="n">
-        <v>36.90848742067604</v>
+        <v>60.22589077856577</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8230575663656</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I13" t="n">
-        <v>178.3296493245552</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2289512774728</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="K13" t="n">
-        <v>178.3296493245552</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L13" t="n">
-        <v>32.12940745055725</v>
+        <v>147.3607315641246</v>
       </c>
       <c r="M13" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N13" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O13" t="n">
-        <v>131.3730568285497</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3296493245552</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="E14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="F14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="H14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="I14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="J14" t="n">
-        <v>178.3296493245552</v>
+        <v>160.0433975822945</v>
       </c>
       <c r="K14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,37 +28363,37 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>144.999744902117</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15.04365268017747</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U15" t="n">
-        <v>178.3296493245552</v>
+        <v>100.6446968256256</v>
       </c>
       <c r="V15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W15" t="n">
-        <v>109.4437987163033</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X15" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.82190908344404</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -28491,67 +28491,67 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>178.3296493245552</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="G16" t="n">
-        <v>178.3296493245552</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H16" t="n">
         <v>165.8230575663656</v>
       </c>
       <c r="I16" t="n">
-        <v>164.8484353357569</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="J16" t="n">
-        <v>178.3296493245552</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="L16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="M16" t="n">
-        <v>133.1432820761377</v>
+        <v>172.2072861291942</v>
       </c>
       <c r="N16" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O16" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P16" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.204364743505</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="R16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="S16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="T16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="U16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="V16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="W16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="X16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245553</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>76.75309993802782</v>
+        <v>265.3154769886094</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273169</v>
+        <v>118.7317571155268</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,19 +28603,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017747</v>
+        <v>15.04365268017748</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.4097000958762</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R17" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4245917920612</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U17" t="n">
         <v>297.4245917920612</v>
@@ -28655,7 +28655,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>125.7337882414754</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668491</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R18" t="n">
         <v>134.7086383504341</v>
@@ -28697,16 +28697,16 @@
         <v>26.40782189532172</v>
       </c>
       <c r="U18" t="n">
-        <v>71.14231596277787</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.08654386482067</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>249.3632665605179</v>
       </c>
       <c r="X18" t="n">
-        <v>28.75053738888903</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28749,19 +28749,19 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M19" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N19" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P19" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q19" t="n">
         <v>127.204364743505</v>
@@ -28819,13 +28819,13 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4245917920612</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J20" t="n">
         <v>265.3154769886094</v>
       </c>
       <c r="K20" t="n">
-        <v>6.684449518273169</v>
+        <v>6.684449518273183</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,13 +28840,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.04365268017747</v>
+        <v>141.2074553625651</v>
       </c>
       <c r="Q20" t="n">
         <v>89.67545097688966</v>
       </c>
       <c r="R20" t="n">
-        <v>264.5964638604662</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S20" t="n">
         <v>297.4245917920612</v>
@@ -28883,19 +28883,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>107.3572203790713</v>
@@ -28922,19 +28922,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5874518930719</v>
+        <v>3.025074842490312</v>
       </c>
       <c r="T21" t="n">
-        <v>151.5040147446248</v>
+        <v>181.464751961895</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280576689302</v>
+        <v>48.6656806183486</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28986,19 +28986,19 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M22" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N22" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P22" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q22" t="n">
         <v>127.204364743505</v>
@@ -29059,10 +29059,10 @@
         <v>297.4245917920612</v>
       </c>
       <c r="J23" t="n">
-        <v>265.3154769886092</v>
+        <v>232.4873490570154</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273169</v>
+        <v>6.684449518273183</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,16 +29077,16 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.04365268017747</v>
+        <v>15.04365268017748</v>
       </c>
       <c r="Q23" t="n">
-        <v>126.7625772672915</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R23" t="n">
         <v>297.4245917920612</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T23" t="n">
         <v>297.4245917920612</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>122.3190991004414</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
-        <v>29.50637388191814</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
         <v>52.45818464705464</v>
@@ -29159,10 +29159,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668491</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S24" t="n">
         <v>191.5874518930719</v>
@@ -29180,7 +29180,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.7505373888892</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29223,19 +29223,19 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M25" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N25" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P25" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q25" t="n">
         <v>127.204364743505</v>
@@ -29302,13 +29302,13 @@
         <v>213.4669766680328</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4669766680328</v>
+        <v>213.4669766680323</v>
       </c>
       <c r="M26" t="n">
         <v>213.4669766680328</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4669766680323</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="O26" t="n">
         <v>213.4669766680328</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29369,7 +29369,7 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>107.3572203790713</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R27" t="n">
-        <v>34.57856517672667</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.4669766680328</v>
@@ -29414,13 +29414,13 @@
         <v>213.4669766680328</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4669766680328</v>
+        <v>113.8376528176266</v>
       </c>
       <c r="X27" t="n">
         <v>213.4669766680328</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,13 +29430,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.4669766680328</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.4669766680328</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>213.4669766680328</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
         <v>213.4669766680328</v>
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>178.460738306418</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H28" t="n">
         <v>165.8230575663656</v>
@@ -29454,25 +29454,25 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2289512774728</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="K28" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L28" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M28" t="n">
-        <v>25.19323846374671</v>
+        <v>92.85950529457745</v>
       </c>
       <c r="N28" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O28" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P28" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q28" t="n">
         <v>127.204364743505</v>
@@ -29600,16 +29600,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>125.7337882414754</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29633,28 +29633,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T30" t="n">
         <v>213.4669766680328</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4669766680328</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4669766680328</v>
+        <v>105.0762423988638</v>
       </c>
       <c r="W30" t="n">
         <v>213.4669766680328</v>
       </c>
       <c r="X30" t="n">
-        <v>127.473656506204</v>
+        <v>213.4669766680328</v>
       </c>
       <c r="Y30" t="n">
         <v>213.4669766680328</v>
@@ -29679,10 +29679,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>145.5180882116113</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>213.4669766680328</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H31" t="n">
         <v>165.8230575663656</v>
@@ -29697,19 +29697,19 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L31" t="n">
+        <v>32.12940745055726</v>
+      </c>
+      <c r="M31" t="n">
+        <v>102.8817587875212</v>
+      </c>
+      <c r="N31" t="n">
+        <v>16.49709222984361</v>
+      </c>
+      <c r="O31" t="n">
+        <v>37.45757960830505</v>
+      </c>
+      <c r="P31" t="n">
         <v>213.4669766680328</v>
-      </c>
-      <c r="M31" t="n">
-        <v>25.19323846374671</v>
-      </c>
-      <c r="N31" t="n">
-        <v>16.4970922298436</v>
-      </c>
-      <c r="O31" t="n">
-        <v>37.45757960830504</v>
-      </c>
-      <c r="P31" t="n">
-        <v>58.46036931460877</v>
       </c>
       <c r="Q31" t="n">
         <v>127.204364743505</v>
@@ -29779,10 +29779,10 @@
         <v>213.4669766680327</v>
       </c>
       <c r="M32" t="n">
+        <v>213.4669766680332</v>
+      </c>
+      <c r="N32" t="n">
         <v>213.4669766680327</v>
-      </c>
-      <c r="N32" t="n">
-        <v>213.4669766680335</v>
       </c>
       <c r="O32" t="n">
         <v>213.4669766680327</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668491</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R33" t="n">
         <v>134.7086383504341</v>
@@ -29888,10 +29888,10 @@
         <v>9.983389351112379</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="X33" t="n">
-        <v>213.4669766680327</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29907,13 +29907,13 @@
         <v>213.4669766680327</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -29928,31 +29928,31 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2289512774728</v>
+        <v>129.9890653824173</v>
       </c>
       <c r="K34" t="n">
-        <v>213.4669766680327</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M34" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N34" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O34" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P34" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q34" t="n">
-        <v>167.5511356185017</v>
+        <v>127.204364743505</v>
       </c>
       <c r="R34" t="n">
-        <v>213.4669766680327</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S34" t="n">
         <v>213.4669766680327</v>
@@ -30004,31 +30004,31 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0596768448573</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J35" t="n">
-        <v>76.75309993802782</v>
+        <v>210.3273225585493</v>
       </c>
       <c r="K35" t="n">
-        <v>103.1426667946017</v>
+        <v>267.1428439929021</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2125982824128</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3096571683279</v>
+        <v>184.3096571683278</v>
       </c>
       <c r="O35" t="n">
-        <v>225.835481713589</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.04365268017747</v>
+        <v>15.04365268017748</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0596768448573</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R35" t="n">
         <v>194.8604380517429</v>
@@ -30037,10 +30037,10 @@
         <v>227.5093375700639</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0596768448573</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0596768448573</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V35" t="n">
         <v>272.0596768448573</v>
@@ -30086,7 +30086,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705464</v>
+        <v>3.74913736964659</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668491</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R36" t="n">
         <v>134.7086383504341</v>
@@ -30119,19 +30119,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
-        <v>205.7836451728989</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>6.246189102382573</v>
+        <v>6.24618910238263</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30144,7 +30144,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4571809719723</v>
+        <v>202.012636687497</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -30171,25 +30171,25 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N37" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O37" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R37" t="n">
-        <v>238.9786396965816</v>
+        <v>203.4231839810569</v>
       </c>
       <c r="S37" t="n">
         <v>235.4354176286827</v>
@@ -30259,25 +30259,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.835481713589</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017747</v>
+        <v>15.04365268017748</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0596768448573</v>
+        <v>146.6578462677022</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0596768448573</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0596768448573</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T38" t="n">
         <v>222.4644104852103</v>
       </c>
       <c r="U38" t="n">
-        <v>250.7437499133835</v>
+        <v>272.0596768448573</v>
       </c>
       <c r="V38" t="n">
         <v>272.0596768448573</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668491</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504341</v>
@@ -30356,19 +30356,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>205.7836451728989</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>191.9398736379942</v>
       </c>
       <c r="W39" t="n">
-        <v>6.246189102382573</v>
+        <v>6.24618910238263</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>177.2315969277497</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30408,19 +30408,19 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N40" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O40" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P40" t="n">
-        <v>94.01582503013346</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
@@ -30490,16 +30490,16 @@
         <v>240.9968149183972</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="N41" t="n">
-        <v>54.53995161096684</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>240.9968149183972</v>
+        <v>54.53995161096707</v>
       </c>
       <c r="Q41" t="n">
         <v>240.9968149183972</v>
@@ -30548,16 +30548,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
         <v>52.45818464705464</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668491</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504341</v>
@@ -30590,22 +30590,22 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
-        <v>234.8709633623166</v>
+        <v>82.92303606345507</v>
       </c>
       <c r="W42" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>240.9968149183972</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>206.2155647164604</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -30645,22 +30645,22 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N43" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O43" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.204364743505</v>
+        <v>230.3426427414221</v>
       </c>
       <c r="R43" t="n">
         <v>203.4231839810569</v>
@@ -30718,34 +30718,34 @@
         <v>240.9968149183972</v>
       </c>
       <c r="J44" t="n">
+        <v>76.75309993802783</v>
+      </c>
+      <c r="K44" t="n">
+        <v>173.6884171492566</v>
+      </c>
+      <c r="L44" t="n">
         <v>240.9968149183972</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>240.9968149183972</v>
-      </c>
-      <c r="L44" t="n">
-        <v>54.5399516109668</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="P44" t="n">
-        <v>240.9968149183972</v>
+        <v>15.04365268017748</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.9968149183972</v>
+        <v>89.67545097688966</v>
       </c>
       <c r="R44" t="n">
-        <v>240.9968149183972</v>
+        <v>194.8604380517429</v>
       </c>
       <c r="S44" t="n">
-        <v>240.9968149183972</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T44" t="n">
         <v>240.9968149183972</v>
@@ -30779,16 +30779,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.7337882414754</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668491</v>
+        <v>6.846506480668499</v>
       </c>
       <c r="R45" t="n">
         <v>134.7086383504341</v>
@@ -30830,16 +30830,16 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>194.7651994939048</v>
+        <v>206.9644062716694</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>240.9968149183972</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>167.7051335174094</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30882,22 +30882,22 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055725</v>
+        <v>32.12940745055726</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374671</v>
+        <v>25.19323846374672</v>
       </c>
       <c r="N46" t="n">
-        <v>16.4970922298436</v>
+        <v>16.49709222984361</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830504</v>
+        <v>37.45757960830505</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460877</v>
+        <v>58.46036931460878</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.204364743505</v>
+        <v>211.2652832312675</v>
       </c>
       <c r="R46" t="n">
         <v>203.4231839810569</v>
@@ -30906,7 +30906,7 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T46" t="n">
-        <v>240.9968149183972</v>
+        <v>223.7609144406078</v>
       </c>
       <c r="U46" t="n">
         <v>240.9968149183972</v>
@@ -30918,7 +30918,7 @@
         <v>240.9968149183972</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9194554082425</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I11" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L11" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N11" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q11" t="n">
         <v>43.95737672232048</v>
@@ -31786,10 +31786,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S11" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U11" t="n">
         <v>0.03256441192055316</v>
@@ -31832,13 +31832,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H12" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J12" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K12" t="n">
         <v>35.16890724972323</v>
@@ -31847,28 +31847,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P12" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R12" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U12" t="n">
         <v>0.01432853325218917</v>
@@ -31914,7 +31914,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J13" t="n">
         <v>12.90917850146575</v>
@@ -31923,34 +31923,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L13" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M13" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N13" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O13" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q13" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R13" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S13" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T13" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I14" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L14" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N14" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q14" t="n">
         <v>43.95737672232048</v>
@@ -32023,10 +32023,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S14" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U14" t="n">
         <v>0.03256441192055316</v>
@@ -32069,13 +32069,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H15" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J15" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K15" t="n">
         <v>35.16890724972323</v>
@@ -32084,28 +32084,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P15" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R15" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U15" t="n">
         <v>0.01432853325218917</v>
@@ -32151,7 +32151,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J16" t="n">
         <v>12.90917850146575</v>
@@ -32160,34 +32160,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L16" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M16" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N16" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O16" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q16" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R16" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S16" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T16" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I17" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L17" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N17" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q17" t="n">
         <v>43.95737672232048</v>
@@ -32260,10 +32260,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S17" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U17" t="n">
         <v>0.03256441192055316</v>
@@ -32306,13 +32306,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H18" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J18" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K18" t="n">
         <v>35.16890724972323</v>
@@ -32321,28 +32321,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P18" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R18" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U18" t="n">
         <v>0.01432853325218917</v>
@@ -32388,7 +32388,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J19" t="n">
         <v>12.90917850146575</v>
@@ -32397,34 +32397,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L19" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M19" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N19" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O19" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P19" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q19" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R19" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S19" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T19" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I20" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L20" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N20" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q20" t="n">
         <v>43.95737672232048</v>
@@ -32497,10 +32497,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S20" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T20" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U20" t="n">
         <v>0.03256441192055316</v>
@@ -32543,13 +32543,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H21" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J21" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K21" t="n">
         <v>35.16890724972323</v>
@@ -32558,28 +32558,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P21" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R21" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U21" t="n">
         <v>0.01432853325218917</v>
@@ -32625,7 +32625,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J22" t="n">
         <v>12.90917850146575</v>
@@ -32634,34 +32634,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L22" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M22" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N22" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O22" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P22" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q22" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R22" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S22" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T22" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I23" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L23" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N23" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q23" t="n">
         <v>43.95737672232048</v>
@@ -32734,10 +32734,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S23" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U23" t="n">
         <v>0.03256441192055316</v>
@@ -32780,13 +32780,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H24" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J24" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K24" t="n">
         <v>35.16890724972323</v>
@@ -32795,28 +32795,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P24" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R24" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U24" t="n">
         <v>0.01432853325218917</v>
@@ -32862,7 +32862,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J25" t="n">
         <v>12.90917850146575</v>
@@ -32871,34 +32871,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L25" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M25" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N25" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O25" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P25" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q25" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R25" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S25" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T25" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,34 +32935,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I26" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L26" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N26" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q26" t="n">
         <v>43.95737672232048</v>
@@ -32971,10 +32971,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S26" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T26" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U26" t="n">
         <v>0.03256441192055316</v>
@@ -33017,13 +33017,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H27" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J27" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K27" t="n">
         <v>35.16890724972323</v>
@@ -33032,28 +33032,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P27" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R27" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U27" t="n">
         <v>0.01432853325218917</v>
@@ -33099,7 +33099,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J28" t="n">
         <v>12.90917850146575</v>
@@ -33108,34 +33108,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L28" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M28" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N28" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O28" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P28" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q28" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R28" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S28" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T28" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,34 +33172,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I29" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L29" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N29" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q29" t="n">
         <v>43.95737672232048</v>
@@ -33208,10 +33208,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S29" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U29" t="n">
         <v>0.03256441192055316</v>
@@ -33254,13 +33254,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H30" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J30" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K30" t="n">
         <v>35.16890724972323</v>
@@ -33269,28 +33269,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O30" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P30" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R30" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U30" t="n">
         <v>0.01432853325218917</v>
@@ -33336,7 +33336,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J31" t="n">
         <v>12.90917850146575</v>
@@ -33345,34 +33345,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L31" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M31" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N31" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O31" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P31" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q31" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R31" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S31" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T31" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I32" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L32" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q32" t="n">
         <v>43.95737672232048</v>
@@ -33445,10 +33445,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U32" t="n">
         <v>0.03256441192055316</v>
@@ -33491,13 +33491,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H33" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J33" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K33" t="n">
         <v>35.16890724972323</v>
@@ -33506,28 +33506,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P33" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R33" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U33" t="n">
         <v>0.01432853325218917</v>
@@ -33573,7 +33573,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J34" t="n">
         <v>12.90917850146575</v>
@@ -33582,34 +33582,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L34" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M34" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N34" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O34" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q34" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R34" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S34" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T34" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,34 +33646,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I35" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q35" t="n">
         <v>43.95737672232048</v>
@@ -33682,10 +33682,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T35" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U35" t="n">
         <v>0.03256441192055316</v>
@@ -33728,13 +33728,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H36" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K36" t="n">
         <v>35.16890724972323</v>
@@ -33743,28 +33743,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O36" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P36" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R36" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U36" t="n">
         <v>0.01432853325218917</v>
@@ -33810,7 +33810,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J37" t="n">
         <v>12.90917850146575</v>
@@ -33819,34 +33819,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L37" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M37" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N37" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O37" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q37" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T37" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,34 +33883,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I38" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q38" t="n">
         <v>43.95737672232048</v>
@@ -33919,10 +33919,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T38" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U38" t="n">
         <v>0.03256441192055316</v>
@@ -33965,13 +33965,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H39" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K39" t="n">
         <v>35.16890724972323</v>
@@ -33980,28 +33980,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O39" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P39" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R39" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U39" t="n">
         <v>0.01432853325218917</v>
@@ -34047,7 +34047,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J40" t="n">
         <v>12.90917850146575</v>
@@ -34056,34 +34056,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L40" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M40" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N40" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O40" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q40" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T40" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I41" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q41" t="n">
         <v>43.95737672232048</v>
@@ -34156,10 +34156,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T41" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U41" t="n">
         <v>0.03256441192055316</v>
@@ -34202,13 +34202,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H42" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K42" t="n">
         <v>35.16890724972323</v>
@@ -34217,28 +34217,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P42" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R42" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U42" t="n">
         <v>0.01432853325218917</v>
@@ -34284,7 +34284,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J43" t="n">
         <v>12.90917850146575</v>
@@ -34293,34 +34293,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L43" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M43" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N43" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O43" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q43" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T43" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069146</v>
+        <v>0.4070551490069145</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767066</v>
+        <v>4.168753544767064</v>
       </c>
       <c r="I44" t="n">
         <v>15.69299363208909</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302566</v>
+        <v>34.54829695302564</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048836</v>
+        <v>51.77894141048834</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690874</v>
+        <v>64.23635542690872</v>
       </c>
       <c r="M44" t="n">
-        <v>71.47532243306046</v>
+        <v>71.47532243306043</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517635</v>
+        <v>72.63186787517634</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723884</v>
+        <v>68.58421323723883</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613063</v>
+        <v>58.53503924613062</v>
       </c>
       <c r="Q44" t="n">
         <v>43.95737672232048</v>
@@ -34393,10 +34393,10 @@
         <v>25.56967800380562</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995078</v>
+        <v>9.275769207995074</v>
       </c>
       <c r="T44" t="n">
-        <v>1.78188391477777</v>
+        <v>1.781883914777769</v>
       </c>
       <c r="U44" t="n">
         <v>0.03256441192055316</v>
@@ -34439,13 +34439,13 @@
         <v>0.2177937054332753</v>
       </c>
       <c r="H45" t="n">
-        <v>2.10342868142137</v>
+        <v>2.103428681421369</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645664</v>
+        <v>7.498599068645662</v>
       </c>
       <c r="J45" t="n">
-        <v>20.57672898569379</v>
+        <v>20.57672898569378</v>
       </c>
       <c r="K45" t="n">
         <v>35.16890724972323</v>
@@ -34454,28 +34454,28 @@
         <v>47.28893590997497</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193119</v>
+        <v>55.18395773193118</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810435</v>
+        <v>56.64451288810434</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876704</v>
+        <v>51.81866288876702</v>
       </c>
       <c r="P45" t="n">
-        <v>41.58904538225413</v>
+        <v>41.58904538225411</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144757</v>
+        <v>27.80117545144756</v>
       </c>
       <c r="R45" t="n">
         <v>13.52231444786599</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868072</v>
+        <v>4.04542255486807</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841224</v>
+        <v>0.8778614705841222</v>
       </c>
       <c r="U45" t="n">
         <v>0.01432853325218917</v>
@@ -34521,7 +34521,7 @@
         <v>1.623399328074259</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222543</v>
+        <v>5.491007134222542</v>
       </c>
       <c r="J46" t="n">
         <v>12.90917850146575</v>
@@ -34530,34 +34530,34 @@
         <v>21.21374582084766</v>
       </c>
       <c r="L46" t="n">
-        <v>27.1462910136262</v>
+        <v>27.14629101362619</v>
       </c>
       <c r="M46" t="n">
         <v>28.62195768301066</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252966</v>
+        <v>27.94139150252965</v>
       </c>
       <c r="O46" t="n">
         <v>25.8083974978513</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785268</v>
+        <v>22.08354259785267</v>
       </c>
       <c r="Q46" t="n">
         <v>15.28950021563598</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119916</v>
+        <v>8.209952021119914</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127149</v>
+        <v>3.182061873127148</v>
       </c>
       <c r="T46" t="n">
-        <v>0.78016123128313</v>
+        <v>0.7801612312831298</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210184</v>
+        <v>0.009959505080210181</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.5765493865274</v>
+        <v>101.5765493865275</v>
       </c>
       <c r="K11" t="n">
-        <v>40.94530831974095</v>
+        <v>153.3589480640213</v>
       </c>
       <c r="L11" t="n">
-        <v>47.24579619221618</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N11" t="n">
-        <v>188.5623770505816</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O11" t="n">
-        <v>34.62291276104001</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P11" t="n">
-        <v>163.2859966443778</v>
+        <v>163.2859966443779</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.65419834766558</v>
+        <v>88.65419834766567</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L12" t="n">
         <v>118.55713633517</v>
@@ -35504,7 +35504,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P12" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,37 +35541,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7127286595871567</v>
+        <v>0.712728659587242</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.87246835258298</v>
       </c>
       <c r="D13" t="n">
-        <v>33.14699907384454</v>
+        <v>33.14699907384463</v>
       </c>
       <c r="E13" t="n">
-        <v>36.65350811233026</v>
+        <v>36.65350811233034</v>
       </c>
       <c r="F13" t="n">
-        <v>39.4027671061086</v>
+        <v>39.40276710610868</v>
       </c>
       <c r="G13" t="n">
-        <v>9.629025123080803</v>
+        <v>9.629025123080888</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.50659175818972</v>
       </c>
       <c r="I13" t="n">
-        <v>13.48121398879837</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.10069804708256</v>
       </c>
       <c r="K13" t="n">
-        <v>111.3171807686846</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>115.2313241135673</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>93.91547722024464</v>
+        <v>140.8720697162503</v>
       </c>
       <c r="P13" t="n">
-        <v>119.8692800099465</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.12528458105025</v>
+        <v>51.12528458105034</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865274</v>
+        <v>83.29029764426663</v>
       </c>
       <c r="K14" t="n">
-        <v>171.6451998062821</v>
+        <v>171.6451998062822</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221618</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N14" t="n">
-        <v>76.14873730630116</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O14" t="n">
-        <v>179.622657663157</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>163.2859966443779</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.65419834766558</v>
+        <v>88.65419834766567</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.37582528515618</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L15" t="n">
         <v>118.55713633517</v>
@@ -35741,7 +35741,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P15" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.712728659587242</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35787,31 +35787,31 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.65350811233026</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.4027671061086</v>
+        <v>39.40276710610868</v>
       </c>
       <c r="G16" t="n">
-        <v>9.629025123080803</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.48121398879846</v>
       </c>
       <c r="J16" t="n">
-        <v>58.10069804708248</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>111.3171807686846</v>
+        <v>111.3171807686847</v>
       </c>
       <c r="L16" t="n">
-        <v>146.200241873998</v>
+        <v>146.2002418739981</v>
       </c>
       <c r="M16" t="n">
-        <v>107.950043612391</v>
+        <v>147.0140476654475</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>51.12528458105034</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.42777687366401</v>
+        <v>56.42777687366394</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>112.0473075972536</v>
       </c>
       <c r="L17" t="n">
-        <v>47.24579619221618</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N17" t="n">
-        <v>76.14873730630116</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O17" t="n">
-        <v>34.62291276104001</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.7342491189865</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5641537403183</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S17" t="n">
-        <v>69.9152542219973</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.96018130685094</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.27407718077497</v>
+        <v>47.27407718077492</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L18" t="n">
         <v>118.55713633517</v>
@@ -35978,7 +35978,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P18" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.42777687366401</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>188.5623770505816</v>
@@ -36124,34 +36124,34 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.24579619221618</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M20" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N20" t="n">
-        <v>76.14873730630116</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276104001</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>126.1638026823876</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.73602580872327</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.9152542219973</v>
+        <v>69.91525422199723</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685094</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U20" t="n">
-        <v>47.27407718077497</v>
+        <v>47.27407718077492</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36209,13 +36209,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N21" t="n">
-        <v>188.5623770505815</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O21" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P21" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.42777687366401</v>
+        <v>56.42777687366394</v>
       </c>
       <c r="J23" t="n">
-        <v>188.5623770505814</v>
+        <v>155.7342491189875</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.24579619221618</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N23" t="n">
-        <v>76.14873730630116</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O23" t="n">
-        <v>34.62291276104001</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>37.08712629040184</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5641537403183</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.91525422199723</v>
       </c>
       <c r="T23" t="n">
-        <v>74.96018130685094</v>
+        <v>74.96018130685088</v>
       </c>
       <c r="U23" t="n">
-        <v>47.27407718077497</v>
+        <v>47.27407718077492</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515622</v>
       </c>
       <c r="L24" t="n">
         <v>118.55713633517</v>
@@ -36446,13 +36446,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505814</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.713876730005</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K26" t="n">
         <v>206.7825271497596</v>
       </c>
       <c r="L26" t="n">
-        <v>260.7127728602489</v>
+        <v>260.7127728602485</v>
       </c>
       <c r="M26" t="n">
         <v>295.204664267176</v>
       </c>
       <c r="N26" t="n">
-        <v>289.6157139743334</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
         <v>248.0898894290728</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L27" t="n">
         <v>118.55713633517</v>
@@ -36689,7 +36689,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P27" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,13 +36726,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.85005600306468</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.00979569606042</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.28432641732206</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>71.79083545580778</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>9.760114104943566</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.23802539056</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>67.66626683083074</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.713876730005</v>
+        <v>136.7138767300049</v>
       </c>
       <c r="K29" t="n">
         <v>206.7825271497596</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L30" t="n">
         <v>118.55713633517</v>
@@ -36926,7 +36926,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P30" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36975,10 +36975,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6.591205993164684</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.76635246655832</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>181.3375692174755</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>77.68852032377454</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.006607353424</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>260.7127728602488</v>
       </c>
       <c r="M32" t="n">
-        <v>295.2046642671759</v>
+        <v>295.2046642671764</v>
       </c>
       <c r="N32" t="n">
-        <v>289.6157139743346</v>
+        <v>289.6157139743339</v>
       </c>
       <c r="O32" t="n">
         <v>248.0898894290727</v>
@@ -37090,7 +37090,7 @@
         <v>123.791525691143</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628976</v>
+        <v>18.60653861628975</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L33" t="n">
         <v>118.55713633517</v>
@@ -37163,7 +37163,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P33" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,13 +37203,13 @@
         <v>35.85005600306459</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.00979569606034</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>68.28432641732198</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.7908354558077</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>9.760114104944485</v>
       </c>
       <c r="K34" t="n">
-        <v>146.454508112162</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37245,10 +37245,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.34677087499669</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.04379268697583</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646007</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>133.5742226205215</v>
       </c>
       <c r="K35" t="n">
-        <v>96.45821727632855</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L35" t="n">
-        <v>47.24579619221618</v>
+        <v>260.458394474629</v>
       </c>
       <c r="M35" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N35" t="n">
         <v>260.458394474629</v>
       </c>
       <c r="O35" t="n">
-        <v>260.458394474629</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3842258679676</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37333,10 +37333,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59526635964701</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90916223357103</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L36" t="n">
         <v>118.55713633517</v>
@@ -37400,7 +37400,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646007</v>
+        <v>31.06286192646006</v>
       </c>
       <c r="J38" t="n">
         <v>195.3065769068295</v>
@@ -37546,34 +37546,34 @@
         <v>260.458394474629</v>
       </c>
       <c r="L38" t="n">
-        <v>47.24579619221618</v>
+        <v>47.24579619221615</v>
       </c>
       <c r="M38" t="n">
-        <v>81.73768759914321</v>
+        <v>81.73768759914319</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630116</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O38" t="n">
-        <v>34.62291276104001</v>
+        <v>260.458394474629</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3842258679676</v>
+        <v>56.98239529081253</v>
       </c>
       <c r="R38" t="n">
-        <v>77.19923879311435</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.55033927479335</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.5932353020972472</v>
+        <v>21.90916223357103</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L39" t="n">
         <v>118.55713633517</v>
@@ -37637,7 +37637,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,19 +37783,19 @@
         <v>234.312365400124</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2426111106134</v>
+        <v>288.2426111106133</v>
       </c>
       <c r="M41" t="n">
-        <v>81.73768759914321</v>
+        <v>322.7345025175404</v>
       </c>
       <c r="N41" t="n">
-        <v>130.688688917268</v>
+        <v>76.14873730630114</v>
       </c>
       <c r="O41" t="n">
-        <v>34.62291276104001</v>
+        <v>34.62291276104</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9531622382197</v>
+        <v>39.49629893078959</v>
       </c>
       <c r="Q41" t="n">
         <v>151.3213639415075</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L42" t="n">
         <v>118.55713633517</v>
@@ -37874,7 +37874,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,10 +37911,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.37989425342911</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>39.75838374448806</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>103.1382779979172</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.2437149803694</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.312365400124</v>
+        <v>167.0039676309834</v>
       </c>
       <c r="L44" t="n">
-        <v>101.785747803183</v>
+        <v>288.2426111106133</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914321</v>
+        <v>322.7345025175404</v>
       </c>
       <c r="N44" t="n">
         <v>317.1455522246983</v>
       </c>
       <c r="O44" t="n">
-        <v>34.62291276104001</v>
+        <v>275.6197276794372</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382197</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.3213639415075</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.13637686665427</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.48747734833328</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>18.53240443318693</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515624</v>
+        <v>38.37582528515623</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38111,7 +38111,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545052</v>
+        <v>84.5041424154505</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,13 +38148,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.37989425342911</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>22.52248326669866</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>84.06091848776248</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.23590047778939</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>19.07735951015468</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
